--- a/Complements/Analyse/Scoop.xlsx
+++ b/Complements/Analyse/Scoop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChanterelleProject\Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChanterelleProject\ChanterelleProject\Complements\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F324F7-FDE3-4E70-88C9-9BD7F95B7DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30B119A-37C4-4CA6-8DF8-205E79EC838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EEC59F58-105A-4FC3-904C-57568F9F88A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="12" activeTab="15" xr2:uid="{EEC59F58-105A-4FC3-904C-57568F9F88A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoop" sheetId="1" r:id="rId1"/>
@@ -1777,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D233513-F360-4335-ACDF-D541FB6DB03C}">
   <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -2725,7 +2725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6324F3-3138-460E-9235-1E151439E934}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
